--- a/Project Outputs for BlinkBoard_micro/BOM/Bill of Materials-BlinkBoard_micro.xlsx
+++ b/Project Outputs for BlinkBoard_micro/BOM/Bill of Materials-BlinkBoard_micro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="17712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41610" windowHeight="22305"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BlinkBoard_mi" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="172">
   <si>
     <t>Designator</t>
   </si>
@@ -65,7 +65,7 @@
     <t>ComponentLink1URL</t>
   </si>
   <si>
-    <t>C4, C5</t>
+    <t>C3, C4</t>
   </si>
   <si>
     <t>10u</t>
@@ -80,246 +80,276 @@
     <t>http://datasheet.octopart.com/CC0805KPX5R6BB106-Yageo-datasheet-86397281.pdf</t>
   </si>
   <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>BREADBOARD</t>
+  </si>
+  <si>
+    <t>Breadboard with 2 columns of 30 rows + VCC and GND rails</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>JACDAC_CONNECTOR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TP1, TP2</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Test point</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>Surface Mount Ceramic Multilayer Capacitor 1uF -20% to 80% Y5V 25V 0805 Paper T/R</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0805ZRY5V8BB105</t>
+  </si>
+  <si>
+    <t>311-1358-1-ND</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/144/mlccorderingcode-144703.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>C2, C6, C7</t>
+  </si>
+  <si>
+    <t>4u7</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 4.7uF 6.3V X5R 10%</t>
+  </si>
+  <si>
+    <t>CC0805KRX5R5BB475</t>
+  </si>
+  <si>
+    <t>311-3422-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/447/UPY-GPHC_X5R_4V-to-50V_25-1131599.pdf?src-supplier=Mouser</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>Surface Mount Ceramic Multilayer Capacitor 0.001uF 10% X7R 50V 0805 Paper T/R</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>311-1127-1-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/11786/0900766b80d84f1d-11786074.pdf?src-supplier=RSComponents</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>33p</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 33pF 50V C0G 5% SMD 0805 125C Paper T/R</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN330</t>
+  </si>
+  <si>
+    <t>311-1105-1-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/144/mlccorderingcode-144778.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>D1, D72</t>
+  </si>
+  <si>
+    <t>1727-2905-1-ND</t>
+  </si>
+  <si>
+    <t>Rectifier Diode Schottky 0.2A 5ns Automotive 3-Pin SC-70 T/R</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>BAT54SW,115</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1679676.pdf?src-supplier=Farnell</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>CUS520,H3F</t>
+  </si>
+  <si>
+    <t>Diode Small Signal Schottky Si 0.2A 2-Pin USC T/R</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>CUS520H3FCT-ND</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=7041&amp;prodName=CUS520&amp;src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>D3, D4, D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28, D29, D30, D31, D32, D33, D34, D35, D36, D37, D38, D39, D40, D41, D42, D43, D44, D45, D46, D47, D48, D49, D50, D51, D52, D53, D54, D55, D56, D57, D58, D59, D60, D61, D62, D63, D64, D65, D66, D67</t>
+  </si>
+  <si>
+    <t>3587</t>
+  </si>
+  <si>
+    <t>DotStar Micro LEDs (APA102–2020)- Smart SMD RGB LED - 100 pack</t>
+  </si>
+  <si>
+    <t>Adafruit Industries</t>
+  </si>
+  <si>
+    <t>1528-2392-ND</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Adafruit%20PDFs/3587_Web.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>SMD LED red 2.4 V 0805, 150080RS75000, Würth Elektronik</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
+  </si>
+  <si>
+    <t>732-4984-6-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/22656/150080rs75000-22656961.pdf?src-supplier=Element14</t>
+  </si>
+  <si>
+    <t>D69, D70</t>
+  </si>
+  <si>
+    <t>D5V0P1B2LP-7B</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5.5V 13V DFN1006-2</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>D5V0P1B2LP-7BDICT-ND</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/115/D5V0P1B2LP-368667.pdf?src-supplier=Mouser</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>CUS10S30,H3F</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 1A USC</t>
+  </si>
+  <si>
+    <t>CUS10S30H3FCT-ND</t>
+  </si>
+  <si>
+    <t>http://toshiba.semicon-storage.com/info/docget.jsp?did=14077&amp;prodName=CUS10S30&amp;src-supplier=Avnet</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>300mR, 1kR @100MHz</t>
+  </si>
+  <si>
+    <t>Ferrite Beads Multi-Layer Chip Bead 1KOhm 25% 100MHz 600mA 0603 T/R</t>
+  </si>
+  <si>
+    <t>742792662</t>
+  </si>
+  <si>
+    <t>732-4670-1-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/29364/742792662-29364469.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>BREADBOARD</t>
-  </si>
-  <si>
-    <t>Breadboard with 2 columns of 30 rows + VCC and GND rails</t>
+    <t>micro:bit edge connector</t>
+  </si>
+  <si>
+    <t>3887 - SMT Right-Angle Connector for micro:bit</t>
+  </si>
+  <si>
+    <t>3887</t>
+  </si>
+  <si>
+    <t>1528-2644-ND</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/3887/3887_datasheet.pdf</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>0475901001</t>
+  </si>
+  <si>
+    <t>USB - micro AB  Receptacle Connector 5 Position Surface Mount, Right Angle, Horizontal</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>WM14336CT-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/29660/475901001-sd-29660111.pdf?src-supplier=Digi-Key</t>
   </si>
   <si>
     <t>J4</t>
   </si>
   <si>
-    <t>JACDAC_CONNECTOR</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TP?</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Test point</t>
-  </si>
-  <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>Surface Mount Ceramic Multilayer Capacitor 1uF -20% to 80% Y5V 25V 0805 Paper T/R</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>CC0805ZRY5V8BB105</t>
-  </si>
-  <si>
-    <t>311-1358-1-ND</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/144/mlccorderingcode-144703.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>C?</t>
-  </si>
-  <si>
-    <t>1n</t>
-  </si>
-  <si>
-    <t>Surface Mount Ceramic Multilayer Capacitor 0.001uF 10% X7R 50V 0805 Paper T/R</t>
-  </si>
-  <si>
-    <t>CC0805KRX7R9BB102</t>
-  </si>
-  <si>
-    <t>311-1127-1-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/11786/0900766b80d84f1d-11786074.pdf?src-supplier=RSComponents</t>
-  </si>
-  <si>
-    <t>33p</t>
-  </si>
-  <si>
-    <t>Cap Ceramic 33pF 50V C0G 5% SMD 0805 125C Paper T/R</t>
-  </si>
-  <si>
-    <t>CC0805JRNPO9BN330</t>
-  </si>
-  <si>
-    <t>311-1105-1-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/144/mlccorderingcode-144778.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>1727-2905-1-ND</t>
-  </si>
-  <si>
-    <t>Rectifier Diode Schottky 0.2A 5ns Automotive 3-Pin SC-70 T/R</t>
-  </si>
-  <si>
-    <t>Philips</t>
-  </si>
-  <si>
-    <t>BAT54SW,115</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/1679676.pdf?src-supplier=Farnell</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5V0P1B2LP-7B</t>
-  </si>
-  <si>
-    <t>TVS DIODE 5.5V 13V DFN1006-2</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>D5V0P1B2LP-7BDICT-ND</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/115/D5V0P1B2LP-368667.pdf?src-supplier=Mouser</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>CUS520,H3F</t>
-  </si>
-  <si>
-    <t>Diode Small Signal Schottky Si 0.2A 2-Pin USC T/R</t>
-  </si>
-  <si>
-    <t>Toshiba</t>
-  </si>
-  <si>
-    <t>CUS520H3FCT-ND</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=7041&amp;prodName=CUS520&amp;src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>D6, D7, D8, D9, D10, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28, D29, D30, D31, D32, D33, D34, D35, D36, D37, D38, D39, D40, D41, D42, D43, D44, D45, D46, D47, D48, D49, D50, D51, D52, D53, D54, D55, D56, D57, D58, D59, D60, D61, D62, D63, D64, D65, D66, D67, D68, D69, D70</t>
-  </si>
-  <si>
-    <t>3587</t>
-  </si>
-  <si>
-    <t>DotStar Micro LEDs (APA102–2020)- Smart SMD RGB LED - 100 pack</t>
-  </si>
-  <si>
-    <t>Adafruit Industries</t>
-  </si>
-  <si>
-    <t>1528-2392-ND</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Adafruit%20PDFs/3587_Web.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>D71</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>WURTH ELEKTRONIK - 150060RS75000 - LED, Red, 625 nm, 2 V, 30 mA, 250 mcd RoHS Compliant: Yes (150060RS75000)</t>
-  </si>
-  <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>150060RS75000</t>
-  </si>
-  <si>
-    <t>732-4978-1-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/29563/150060rs75000-29563040.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>300mR, 1kR @100MHz</t>
-  </si>
-  <si>
-    <t>Ferrite Beads Multi-Layer Chip Bead 1KOhm 25% 100MHz 600mA 0603 T/R</t>
-  </si>
-  <si>
-    <t>742792662</t>
-  </si>
-  <si>
-    <t>732-4670-1-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/29364/742792662-29364469.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>0475901001</t>
-  </si>
-  <si>
-    <t>USB - micro AB  Receptacle Connector 5 Position Surface Mount, Right Angle, Horizontal</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>47590-1001</t>
-  </si>
-  <si>
-    <t>WM14336CT-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/29660/475901001-sd-29660111.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>micro:bit edge connector</t>
-  </si>
-  <si>
-    <t>3887 - SMT Right-Angle Connector for micro:bit</t>
-  </si>
-  <si>
-    <t>3887</t>
-  </si>
-  <si>
-    <t>1528-2644-ND</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/3887/3887_datasheet.pdf</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>SSW-103-01-F-D</t>
   </si>
   <si>
@@ -335,7 +365,97 @@
     <t>http://www.farnell.com/datasheets/2550265.pdf?src-supplier=Farnell</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R1, R3, R5, R6</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0805 10K Ohm 5% 1/8W ±100ppm/°C Molded SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>RC0805JR-0710KL</t>
+  </si>
+  <si>
+    <t>311-10KARCT-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/7941/444164-7941870.pdf?src-supplier=Element14</t>
+  </si>
+  <si>
+    <t>R2, R4</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>RES SMD 200 OHM 0.5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RT0805DRE07200RL</t>
+  </si>
+  <si>
+    <t>311-2816-1-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/2569/pyu-rt-1-to-0-05-rohs-l-5-2569311.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>RES SMD 160 OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RC0805JR-07160RL</t>
+  </si>
+  <si>
+    <t>311-160ARCT-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/2456/pyu-r-int-thick-7-2456164.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>280K_1%</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0805 280K Ohm 1% 0.125W(1/8W) ±100ppm/°C Pad SMD T/R</t>
+  </si>
+  <si>
+    <t>RC0805FR-07280KL</t>
+  </si>
+  <si>
+    <t>311-280KCRCT-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/2457/pyu-r-int-thick-7-2457581.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>RES SMD 1M OHM 0.1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RT0805BRE071ML</t>
+  </si>
+  <si>
+    <t>YAG4967CT-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/8896/pyu-rt-1-to-0-05-rohs-l-4-8896102.pdf?src-supplier=Avnet</t>
+  </si>
+  <si>
+    <t>R11</t>
   </si>
   <si>
     <t>220</t>
@@ -353,45 +473,6 @@
     <t>https://datasheet.ciiva.com/7941/442941-7941917.pdf?src-supplier=Element14</t>
   </si>
   <si>
-    <t>R3, R6, R7, R8</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0805 10K Ohm 5% 1/8W ±100ppm/°C Molded SMD Paper T/R</t>
-  </si>
-  <si>
-    <t>RC0805JR-0710KL</t>
-  </si>
-  <si>
-    <t>311-10KARCT-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/7941/444164-7941870.pdf?src-supplier=Element14</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>RES SMD 200 OHM 0.5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RT0805DRE07200RL</t>
-  </si>
-  <si>
-    <t>311-2816-1-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/2569/pyu-rt-1-to-0-05-rohs-l-5-2569311.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
-    <t>R?</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -444,6 +525,24 @@
   </si>
   <si>
     <t>https://datasheet.ciiva.com/17170/bss138w-17170739.pdf</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>TPS2551QDBVRQ1</t>
+  </si>
+  <si>
+    <t>Automotive 2.7V to 5.5V, adjustable current-Limit power distribution switch 6-SOT-23 -40 to 125</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>296-23692-1-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/3233/tps2551-q1-3233588.pdf?src-supplier=Avnet</t>
   </si>
 </sst>
 </file>
@@ -786,19 +885,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
-    <col min="8" max="12" width="16" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -862,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -884,7 +983,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -906,7 +1005,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -919,7 +1018,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -928,7 +1027,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -945,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>31</v>
@@ -957,14 +1056,14 @@
         <v>32</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -981,49 +1080,49 @@
         <v>37</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="1">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1033,21 +1132,21 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>49</v>
@@ -1056,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -1069,30 +1168,30 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1">
         <v>0.23</v>
@@ -1101,37 +1200,37 @@
         <v>32</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -1141,141 +1240,141 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1">
-        <v>0.22</v>
+        <v>29.95</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1">
-        <v>29.95</v>
+        <v>0.18</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H15" s="1">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -1285,33 +1384,33 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -1321,30 +1420,30 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H17" s="1">
         <v>2.95</v>
@@ -1357,33 +1456,33 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H18" s="1">
-        <v>1.42</v>
+        <v>0.97</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -1393,33 +1492,33 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="1">
-        <v>0.1</v>
+        <v>1.42</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -1429,30 +1528,30 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H20" s="1">
         <v>0.1</v>
@@ -1465,30 +1564,30 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H21" s="1">
         <v>0.12</v>
@@ -1497,73 +1596,73 @@
         <v>32</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H22" s="1">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H23" s="1">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>32</v>
@@ -1573,33 +1672,33 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H24" s="1">
-        <v>1.72</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>32</v>
@@ -1609,47 +1708,191 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H25" s="1">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Outputs for BlinkBoard_micro/BOM/Bill of Materials-BlinkBoard_micro.xlsx
+++ b/Project Outputs for BlinkBoard_micro/BOM/Bill of Materials-BlinkBoard_micro.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
   <si>
     <t>Designator</t>
   </si>
@@ -92,10 +92,13 @@
     <t>J5</t>
   </si>
   <si>
-    <t>JACDAC_CONNECTOR</t>
-  </si>
-  <si>
-    <t/>
+    <t>Jacdac edge connector</t>
+  </si>
+  <si>
+    <t>3 pin Jacdac edge connector 1.27mm pitch</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/jacdac-mdk/blob/main/connector/JACDAC-Connector-by-Yuliang-2020-11-28.pdf</t>
   </si>
   <si>
     <t>TP1, TP2</t>
@@ -1003,17 +1006,19 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1029,866 +1034,866 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
         <v>0.17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1">
         <v>3</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1">
         <v>0.1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1">
         <v>0.11</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1">
         <v>0.23</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1">
         <v>0.22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="1">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1">
         <v>29.95</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1">
         <v>65</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1">
         <v>0.18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1">
         <v>0.38</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="1">
         <v>0.17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="1">
         <v>2.95</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="1">
         <v>0.97</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="1">
         <v>1.42</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1">
         <v>0.1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1">
         <v>0.12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="1">
         <v>0.1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="1">
         <v>0.1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H24" s="1">
         <v>0.4</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" s="1">
         <v>0.1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H26" s="1">
         <v>0.76</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H27" s="1">
         <v>1.72</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H28" s="1">
         <v>0.39</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="1">
         <v>3.08</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for BlinkBoard_micro/BOM/Bill of Materials-BlinkBoard_micro.xlsx
+++ b/Project Outputs for BlinkBoard_micro/BOM/Bill of Materials-BlinkBoard_micro.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="175">
   <si>
     <t>Designator</t>
   </si>
@@ -89,18 +89,6 @@
     <t>Breadboard with 2 columns of 30 rows + VCC and GND rails</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Jacdac edge connector</t>
-  </si>
-  <si>
-    <t>3 pin Jacdac edge connector 1.27mm pitch</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/jacdac-mdk/blob/main/connector/JACDAC-Connector-by-Yuliang-2020-11-28.pdf</t>
-  </si>
-  <si>
     <t>TP1, TP2</t>
   </si>
   <si>
@@ -128,7 +116,7 @@
     <t>311-1358-1-ND</t>
   </si>
   <si>
-    <t>USD</t>
+    <t>KRW</t>
   </si>
   <si>
     <t>https://datasheet.ciiva.com/144/mlccorderingcode-144703.pdf?src-supplier=Digi-Key</t>
@@ -197,7 +185,7 @@
     <t>Rectifier Diode Schottky 0.2A 5ns Automotive 3-Pin SC-70 T/R</t>
   </si>
   <si>
-    <t>Philips</t>
+    <t>Nexperia</t>
   </si>
   <si>
     <t>BAT54SW,115</t>
@@ -344,6 +332,9 @@
     <t>Molex</t>
   </si>
   <si>
+    <t>47590-1001</t>
+  </si>
+  <si>
     <t>WM14336CT-ND</t>
   </si>
   <si>
@@ -368,6 +359,39 @@
     <t>http://www.farnell.com/datasheets/2550265.pdf?src-supplier=Farnell</t>
   </si>
   <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>SSW-105-01-F-D</t>
+  </si>
+  <si>
+    <t>Conn Socket Strip SKT 10 POS 2.54mm Solder ST Thru-Hole</t>
+  </si>
+  <si>
+    <t>SAM9143-ND</t>
+  </si>
+  <si>
+    <t>http://components.arrow.com/part/dataview/2696898S8147588N1004?src-supplier=Arrow+Electronics</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>0397000203</t>
+  </si>
+  <si>
+    <t>SPRING TERMINAL BLOCK 3CVERT GRE</t>
+  </si>
+  <si>
+    <t>39700-0203</t>
+  </si>
+  <si>
+    <t>WM22175-ND</t>
+  </si>
+  <si>
+    <t>http://www.molex.com/pdm_docs/sd/397000202_sd.pdf?src-supplier=Digi-Key</t>
+  </si>
+  <si>
     <t>R1, R3, R5, R6</t>
   </si>
   <si>
@@ -422,24 +446,6 @@
     <t>https://datasheet.ciiva.com/2456/pyu-r-int-thick-7-2456164.pdf?src-supplier=Digi-Key</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>280K_1%</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0805 280K Ohm 1% 0.125W(1/8W) ±100ppm/°C Pad SMD T/R</t>
-  </si>
-  <si>
-    <t>RC0805FR-07280KL</t>
-  </si>
-  <si>
-    <t>311-280KCRCT-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/2457/pyu-r-int-thick-7-2457581.pdf?src-supplier=Digi-Key</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
@@ -533,19 +539,19 @@
     <t>U5</t>
   </si>
   <si>
-    <t>TPS2551QDBVRQ1</t>
-  </si>
-  <si>
-    <t>Automotive 2.7V to 5.5V, adjustable current-Limit power distribution switch 6-SOT-23 -40 to 125</t>
+    <t>TPS2553DRVR-1</t>
+  </si>
+  <si>
+    <t>IC PWR DIST SWITCH ADJ 6SON</t>
   </si>
   <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>296-23692-1-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/3233/tps2551-q1-3233588.pdf?src-supplier=Avnet</t>
+    <t>296-39381-1-ND</t>
+  </si>
+  <si>
+    <t>https://datasheet.ciiva.com/15108/getdatasheetpartid-625184-15108813.pdf?src-supplier=Verical</t>
   </si>
 </sst>
 </file>
@@ -999,905 +1005,917 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1">
+        <v>152.44999999999999</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1">
-        <v>0.14000000000000001</v>
+        <v>185.12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1">
-        <v>0.17</v>
+        <v>108.9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1">
-        <v>0.1</v>
+        <v>119.79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H9" s="1">
-        <v>0.11</v>
+        <v>250.46</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1">
-        <v>0.23</v>
+        <v>239.57</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1">
-        <v>0.22</v>
+        <v>32614.37</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1">
-        <v>29.95</v>
+        <v>196.01</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H13" s="1">
-        <v>0.18</v>
+        <v>304.91000000000003</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="1">
-        <v>0.28000000000000003</v>
+        <v>413.8</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" s="1">
-        <v>0.38</v>
+        <v>196.01</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" s="1">
-        <v>0.17</v>
+        <v>3212.43</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H17" s="1">
-        <v>2.95</v>
+        <v>1056.29</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H18" s="1">
-        <v>0.97</v>
+        <v>1600.77</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H19" s="1">
-        <v>1.42</v>
+        <v>2036.36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="1">
-        <v>0.1</v>
+        <v>1862.12</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H21" s="1">
-        <v>0.12</v>
+        <v>108.9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H22" s="1">
-        <v>0.1</v>
+        <v>130.68</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="1">
-        <v>0.1</v>
+        <v>108.9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H24" s="1">
-        <v>0.4</v>
+        <v>468.25</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H25" s="1">
-        <v>0.1</v>
+        <v>108.9</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="1">
-        <v>0.76</v>
+        <v>827.61</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H27" s="1">
-        <v>1.72</v>
+        <v>1873.01</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H28" s="1">
-        <v>0.39</v>
+        <v>490.03</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="1">
-        <v>3.08</v>
+        <v>1056.29</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>